--- a/medicine/Pharmacie/Acébutolol/Acébutolol.xlsx
+++ b/medicine/Pharmacie/Acébutolol/Acébutolol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ac%C3%A9butolol</t>
+          <t>Acébutolol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'acébutolol est la substance active d'un médicament bêta-bloquant utilisé comme antihypertenseur et antiarythmique[3]. Il est administré sous forme de chlorhydrate d'acébutolol.
+L'acébutolol est la substance active d'un médicament bêta-bloquant utilisé comme antihypertenseur et antiarythmique. Il est administré sous forme de chlorhydrate d'acébutolol.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ac%C3%A9butolol</t>
+          <t>Acébutolol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hypertension artérielle
 Prophylaxie des crises d'angor d'effort
 Traitement au long cours après infarctus du myocarde (l'acébutolol diminue le risque de récidive d'infarctus du myocarde et la mortalité, particulièrement la mort subite)
-Traitement de certains troubles du rythme : supraventriculaires (tachycardies, flutters et fibrillations auriculaires, tachycardies jonctionnelles) ou ventriculaires (extrasystolie ventriculaire, tachycardies ventriculaires)[4]</t>
+Traitement de certains troubles du rythme : supraventriculaires (tachycardies, flutters et fibrillations auriculaires, tachycardies jonctionnelles) ou ventriculaires (extrasystolie ventriculaire, tachycardies ventriculaires)</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ac%C3%A9butolol</t>
+          <t>Acébutolol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Asthme et bronchopneumopathies chroniques obstructives, dans leurs formes sévères
 Insuffisance cardiaque non contrôlée par le traitement
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ac%C3%A9butolol</t>
+          <t>Acébutolol</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Principaux effets indésirables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fatigue
 Refroidissement des extrémités
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ac%C3%A9butolol</t>
+          <t>Acébutolol</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,9 +640,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le brevet a été déposé en 1967 par May &amp; Baker[5], qui deviendra Aventis, entreprise qui fusionnera en 2004 avec Sanofi[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le brevet a été déposé en 1967 par May &amp; Baker, qui deviendra Aventis, entreprise qui fusionnera en 2004 avec Sanofi.
 </t>
         </is>
       </c>
